--- a/plantilla_Registro_RCE.xlsx
+++ b/plantilla_Registro_RCE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProyectoWeb_PHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08040F33-7438-4D06-8534-441FC29CD4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB3B421-4564-4475-B50B-3D38CED057AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="5025" windowWidth="28800" windowHeight="15345" xr2:uid="{3FE60730-14AF-4CB0-BC79-657F84332A0E}"/>
+    <workbookView xWindow="3555" yWindow="3975" windowWidth="28800" windowHeight="15345" xr2:uid="{3FE60730-14AF-4CB0-BC79-657F84332A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>C1</t>
   </si>
@@ -153,33 +153,6 @@
   </si>
   <si>
     <t>C40</t>
-  </si>
-  <si>
-    <t>65d6428705a1ed6a197713f3</t>
-  </si>
-  <si>
-    <t>2010005345501FCC10003444810</t>
-  </si>
-  <si>
-    <t>FCC1</t>
-  </si>
-  <si>
-    <t>BANCO INTERNACIONAL DEL PERÃš  INTERBANK</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>2010005345501FCC10003536955</t>
-  </si>
-  <si>
-    <t>2029251070601F0010000004878</t>
-  </si>
-  <si>
-    <t>F001</t>
-  </si>
-  <si>
-    <t>QUASAR</t>
   </si>
   <si>
     <t>MONEDA</t>
@@ -666,15 +639,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1053,7 +1023,7 @@
   <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,518 +1032,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="N1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3">
-        <v>20503724058</v>
-      </c>
-      <c r="C2" s="3">
-        <v>202401</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="5">
-        <v>45294</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="3">
-        <v>3444810</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <v>6</v>
-      </c>
-      <c r="L2" s="3">
-        <v>20100053455</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="3">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3">
-        <v>80000</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3">
-        <v>3.7130000000000001</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>3.7130000000000001</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>0</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3">
-        <v>20503724058</v>
-      </c>
-      <c r="C3" s="3">
-        <v>202401</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45322</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3536955</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
-        <v>6</v>
-      </c>
-      <c r="L3" s="3">
-        <v>20100053455</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3">
-        <v>80000</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3">
-        <v>3.8130000000000002</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>3.8130000000000002</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>57.2</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>57.2</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>0</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="3">
-        <v>20503724058</v>
-      </c>
-      <c r="C4" s="3">
-        <v>202401</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="5">
-        <v>45300</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4878</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3">
-        <v>6</v>
-      </c>
-      <c r="L4" s="3">
-        <v>20292510706</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3">
-        <v>80000</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>1</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="X4" s="3">
-        <v>107</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>3.7189999999999999</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>3.7189999999999999</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>2403.2199999999998</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>432.59</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>2835.81</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>0</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
